--- a/reports/raw-views/assets/tables/meso_per_cat.xlsx
+++ b/reports/raw-views/assets/tables/meso_per_cat.xlsx
@@ -516,166 +516,158 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>linguagem e representação</t>
+          <t>maternidade</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02099224995423199</v>
+        <v>-0.001692763436309752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0184696832214335</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
+        <v>0.04064422874685059</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>família</t>
+          <t>linguagem e representação</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001269035532994955</v>
+        <v>0.02099224995423199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0527149194004024</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.03076923076923088</v>
-      </c>
+        <v>0.0184696832214335</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>resistência e luta</t>
+          <t>família</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01725512339323088</v>
+        <v>-0.001269035532994955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05009995677544854</v>
+        <v>0.0527149194004024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6646646646646647</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.01524390243902429</v>
-      </c>
+        <v>-0.03103448275862064</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>saudade, luto ou perda</t>
+          <t>resistência e luta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1536106750392465</v>
+        <v>0.01725512339323088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05801075583007054</v>
+        <v>0.05009995677544854</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.6644219977553312</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009090909090909038</v>
+        <v>-0.01700680272108857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sonho e fantasia</t>
+          <t>saudade, luto ou perda</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1261784460766218</v>
+        <v>0.1536106750392465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08651128822277976</v>
+        <v>0.05801075583007054</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.006042296072507503</v>
+        <v>-0.01013513513513509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>questão agrária e territorial</t>
+          <t>sonho e fantasia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002116850127011016</v>
+        <v>0.1261784460766218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1291348610949269</v>
+        <v>0.08651128822277976</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7446646341463414</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.003012048192771122</v>
+        <v>-0.003355704697986628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mobilidade</t>
+          <t>questão agrária e territorial</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03837875683945757</v>
+        <v>-0.002116850127011016</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04265942136199175</v>
+        <v>0.1291348610949269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5636126791141989</v>
+        <v>0.7440068493150684</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.003012048192771122</v>
+        <v>-0.003355704697986628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>estruturas sociais e econômicas</t>
+          <t>mobilidade</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06184225315452274</v>
+        <v>0.03837875683945757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06810972814623684</v>
+        <v>0.04265942136199175</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.006006006006006093</v>
+        <v>0.5626523647001462</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.003012048192771122</v>
+        <v>-0.003355704697986628</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>sistema penitenciário</t>
+          <t>tecnologia, inovação e sociedade</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0004226542688081647</v>
+        <v>-0.001692763436309752</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2139456779045861</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
+        <v>0.1296105179647159</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -683,14 +675,14 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>vida rural, vida no campo</t>
+          <t>sistema penitenciário</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1127864095278399</v>
+        <v>-0.0004226542688081647</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09277065458771383</v>
+        <v>0.2139456779045861</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -702,17 +694,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>recreação, lazer e entretenimento</t>
+          <t>vida rural, vida no campo</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.003816793893129722</v>
+        <v>0.1127864095278399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0199479651302199</v>
+        <v>0.09277065458771383</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -721,567 +713,567 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>reflexão</t>
+          <t>recreação, lazer e entretenimento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.003391267486222871</v>
+        <v>-0.003816793893129722</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00322664824118124</v>
+        <v>0.0199479651302199</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1564874753729243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>vida cotidiana</t>
+          <t>estruturas sociais e econômicas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07433873720136508</v>
+        <v>0.06184225315452274</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06762693418380306</v>
+        <v>0.06810972814623684</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002994011976047872</v>
+        <v>-0.006734006734006703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2030769230769232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>reflexão</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08051205906189551</v>
+        <v>-0.003391267486222871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07526982506934388</v>
+        <v>0.00322664824118124</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5541259982253771</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3927051671732523</v>
+        <v>0.1535073922617176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>pandemia</t>
+          <t>vida cotidiana</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1337371292667811</v>
+        <v>0.07433873720136508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1362333666309427</v>
+        <v>0.06762693418380306</v>
       </c>
       <c r="D20" t="n">
-        <v>0.73828125</v>
+        <v>-0.003355704697986628</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.200840015273005</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>arte</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09271720613287915</v>
+        <v>0.08051205906189551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03120625109756925</v>
+        <v>0.07526982506934388</v>
       </c>
       <c r="D21" t="n">
-        <v>0.344055944055944</v>
+        <v>0.5993031358885017</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4629032258064516</v>
+        <v>0.3918644067796611</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>solidão</t>
+          <t>pandemia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09216980560770316</v>
+        <v>0.1337371292667811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0399854446331066</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.1362333666309427</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7367957746478873</v>
+      </c>
       <c r="E22" t="n">
-        <v>0.4892638036809817</v>
+        <v>0.4291714394807178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>memória e patrimônio</t>
+          <t>arte</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.13437396333348</v>
+        <v>0.09271720613287915</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09129259470778595</v>
+        <v>0.03120625109756925</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2031940197077812</v>
+        <v>0.3416168606480026</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4892638036809817</v>
+        <v>0.4837545126353791</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dinâmica urbana</t>
+          <t>memória e patrimônio</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1179422133191038</v>
+        <v>0.13437396333348</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05848410860569164</v>
+        <v>0.09129259470778595</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3106995884773663</v>
+        <v>0.200840015273005</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4892638036809817</v>
+        <v>0.488013698630137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>política</t>
+          <t>solidão</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0535441657579061</v>
+        <v>0.09216980560770316</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1991659338461489</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4954819277108434</v>
-      </c>
+        <v>0.0399854446331066</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.4954545454545455</v>
+        <v>0.488013698630137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sonoridade e paisagem sonora</t>
+          <t>dinâmica urbana</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07776048456563267</v>
+        <v>0.1179422133191038</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1093142377884295</v>
+        <v>0.05848410860569164</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.3078703703703703</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4954545454545455</v>
+        <v>0.488013698630137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>territorialidade e colonialismo</t>
+          <t>sonoridade e paisagem sonora</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1686322188449849</v>
+        <v>0.07776048456563267</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04430741982339381</v>
+        <v>0.1093142377884295</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8861705742439687</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4954545454545455</v>
+        <v>0.4949324324324325</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>saúde mental</t>
+          <t>territorialidade e colonialismo</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1772537902132381</v>
+        <v>0.1686322188449849</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07338090055341351</v>
+        <v>0.04430741982339381</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6386192017259978</v>
+        <v>0.8858342878961436</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5540178571428571</v>
+        <v>0.4949324324324325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>poesia e ensaio</t>
+          <t>política</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0791303007391857</v>
+        <v>0.0535441657579061</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05965531139032709</v>
+        <v>0.1991659338461489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.37847866419295</v>
+        <v>0.4949324324324325</v>
       </c>
       <c r="E29" t="n">
-        <v>0.575796178343949</v>
+        <v>0.4949324324324325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>povos originários e comunidades tradicionais</t>
+          <t>saúde mental</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.07360328350894407</v>
+        <v>0.1772537902132381</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1745641684215417</v>
+        <v>0.07338090055341351</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8861705742439687</v>
+        <v>0.6088947024198823</v>
       </c>
       <c r="E30" t="n">
-        <v>0.652037617554859</v>
+        <v>0.551948051948052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>mulher, feminino e feminismo</t>
+          <t>poesia e ensaio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1561350573463302</v>
+        <v>0.0791303007391857</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1130381636868613</v>
+        <v>0.05965531139032709</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4830246913580247</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="E31" t="n">
-        <v>0.652037617554859</v>
+        <v>0.572857142857143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>corpo, performance e expressão</t>
+          <t>povos originários e comunidades tradicionais</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04792576960587136</v>
+        <v>0.07360328350894407</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1525330728009373</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>0.1745641684215417</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8542174549000487</v>
+      </c>
       <c r="E32" t="n">
-        <v>0.6584615384615384</v>
+        <v>0.5993031358885017</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>trabalho e ofício</t>
+          <t>mulher, feminino e feminismo</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1432888540031397</v>
+        <v>0.1561350573463302</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1128546518675327</v>
+        <v>0.1130381636868613</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7188811188811188</v>
+        <v>0.5297263290342875</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6584615384615384</v>
+        <v>0.6502923976608187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>distopia, ficção científica e futuros imaginados</t>
+          <t>corpo, performance e expressão</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1307555460293643</v>
+        <v>0.04792576960587136</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07923305428031335</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.6646646646646647</v>
-      </c>
+        <v>0.1525330728009373</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.6584615384615384</v>
+        <v>0.6575028636884307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>tecnologia, inovação e sociedade</t>
+          <t>distopia, ficção científica e futuros imaginados</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.001692763436309752</v>
+        <v>0.1307555460293643</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1296105179647159</v>
+        <v>0.07923305428031335</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.6644219977553312</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6646525679758308</v>
+        <v>0.6609977324263039</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>sociedade e consumo</t>
+          <t>violências e preconceitos de gênero</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.05153299738935113</v>
+        <v>0.0702501812907903</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09007331853838785</v>
+        <v>0.2242655108066456</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6646525679758308</v>
+        <v>0.6644219977553312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>violências e preconceitos de gênero</t>
+          <t>sociedade e consumo</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0702501812907903</v>
+        <v>0.05153299738935113</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2242655108066456</v>
+        <v>0.09007331853838785</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6646525679758308</v>
+        <v>0.6644219977553312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>alimentação e tratamentos tradicionais</t>
+          <t>moradia e habitação</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1344466114090688</v>
+        <v>0.09332284988508532</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230742353695167</v>
+        <v>0.03655807124504251</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3927492447129909</v>
+        <v>0.3078703703703703</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7446319018404908</v>
+        <v>0.6644219977553312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>vida afetiva</t>
+          <t>violência</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08348697181222353</v>
+        <v>-0.003816793893129722</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06196447104692349</v>
+        <v>0.02542126680808454</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344055944055944</v>
+        <v>0.7972881355932203</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7446319018404908</v>
+        <v>0.6644219977553312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ambiental</t>
+          <t>trabalho e ofício</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1704551937731774</v>
+        <v>0.1432888540031397</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1072486287876876</v>
+        <v>0.1128546518675327</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5620915032679739</v>
+        <v>0.6575028636884307</v>
       </c>
       <c r="E40" t="n">
-        <v>0.767230532643646</v>
+        <v>0.7440068493150684</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>violência</t>
+          <t>vida afetiva</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.003816793893129722</v>
+        <v>0.08348697181222353</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02542126680808454</v>
+        <v>0.06196447104692349</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6616161616161615</v>
+        <v>0.3416168606480026</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7975683890577507</v>
+        <v>0.7440068493150684</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>moradia e habitação</t>
+          <t>alimentação e tratamentos tradicionais</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.09332284988508532</v>
+        <v>0.1344466114090688</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03655807124504251</v>
+        <v>0.230742353695167</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4055013309671694</v>
+        <v>0.3918644067796611</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7975683890577507</v>
+        <v>0.7440068493150684</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>desinformação, populismo e polarização</t>
+          <t>educação e socialização</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.17932651580411</v>
+        <v>0.1114948245605802</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2203903889728095</v>
+        <v>0.04290315008460299</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002994011976047872</v>
+        <v>0.5875862068965517</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7975683890577507</v>
+        <v>0.7440068493150684</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>educação e socialização</t>
+          <t>desinformação, populismo e polarização</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1114948245605802</v>
+        <v>0.17932651580411</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04290315008460299</v>
+        <v>0.2203903889728095</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6521287642782969</v>
+        <v>-0.003355704697986628</v>
       </c>
       <c r="E44" t="n">
-        <v>0.827639751552795</v>
+        <v>0.7972881355932203</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>religião, espiritualidade e cosmologias</t>
+          <t>ambiental</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1733327259475219</v>
+        <v>0.1704551937731774</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06693363011004605</v>
+        <v>0.1072486287876876</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7446646341463414</v>
+        <v>0.5814989184374602</v>
       </c>
       <c r="E45" t="n">
-        <v>0.827639751552795</v>
+        <v>0.8044473512099412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>gênero e sexualidade</t>
+          <t>religião, espiritualidade e cosmologias</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1065885559691625</v>
+        <v>0.1733327259475219</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2282058046313643</v>
+        <v>0.06693363011004605</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9062937062937063</v>
+        <v>0.7972881355932203</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9062763861525471</v>
+        <v>0.8858342878961436</v>
       </c>
     </row>
     <row r="47">
@@ -1297,25 +1289,27 @@
         <v>0.08601164557975172</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2339939024390244</v>
+        <v>0.2320205479452055</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9062763861525471</v>
+        <v>0.9059452658068575</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>maternidade</t>
+          <t>pessoas com deficiência</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.001692763436309752</v>
+        <v>0.1761349878934625</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04064422874685059</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>0.1009122474323939</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
@@ -1323,14 +1317,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>pessoas com deficiência</t>
+          <t>gênero e sexualidade</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1761349878934625</v>
+        <v>0.1065885559691625</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1009122474323939</v>
+        <v>0.2282058046313643</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1386,7 +1380,7 @@
         <v>0.2244857069255272</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.002994011976047872</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
